--- a/data/descargas/corte_caja.xlsx
+++ b/data/descargas/corte_caja.xlsx
@@ -578,7 +578,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 06:09 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 06:28 a. m. </t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>

--- a/data/descargas/corte_caja.xlsx
+++ b/data/descargas/corte_caja.xlsx
@@ -578,7 +578,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 06:28 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 06:35 a. m. </t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>

--- a/data/descargas/corte_caja.xlsx
+++ b/data/descargas/corte_caja.xlsx
@@ -578,7 +578,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 06:35 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 06:45 a. m. </t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>

--- a/data/descargas/corte_caja.xlsx
+++ b/data/descargas/corte_caja.xlsx
@@ -578,7 +578,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 06:45 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 07:13 a. m. </t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>

--- a/data/descargas/corte_caja.xlsx
+++ b/data/descargas/corte_caja.xlsx
@@ -578,7 +578,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 07:13 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 07:35 a. m. </t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
